--- a/published-data/fonds-solidarite/fds-2020-12-30/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-30/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>59260</v>
+        <v>59261</v>
       </c>
       <c r="D156" t="n">
-        <v>110444909</v>
+        <v>110446347</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>22161</v>
+        <v>22162</v>
       </c>
       <c r="D167" t="n">
-        <v>37517849</v>
+        <v>37520570</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>122510</v>
+        <v>122509</v>
       </c>
       <c r="D186" t="n">
-        <v>210555262</v>
+        <v>210552541</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>18544</v>
+        <v>18543</v>
       </c>
       <c r="D266" t="n">
-        <v>33778461</v>
+        <v>33777023</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>76742</v>
+        <v>76743</v>
       </c>
       <c r="D267" t="n">
-        <v>185479444</v>
+        <v>185483660</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -12518,10 +12518,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>112083</v>
+        <v>112084</v>
       </c>
       <c r="D321" t="n">
-        <v>216809289</v>
+        <v>216810007</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="D322" t="n">
-        <v>80054854</v>
+        <v>80054136</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>40325</v>
+        <v>40326</v>
       </c>
       <c r="D332" t="n">
-        <v>70131036</v>
+        <v>70131926</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -12974,10 +12974,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>63763</v>
+        <v>63762</v>
       </c>
       <c r="D333" t="n">
-        <v>103698610</v>
+        <v>103697720</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
